--- a/data/stateGdp.xlsx
+++ b/data/stateGdp.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\js\js sandbox\gdpForce\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\js\js sandbox\GDP-force\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF12A731-A3D3-490C-912A-3CC18D2DD493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7944C5A-8F47-4C37-9C79-AFCCC43C6801}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29820" yWindow="2040" windowWidth="28800" windowHeight="14220" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -364,7 +364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -381,6 +381,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4954,21 +4962,22 @@
   <dimension ref="A1:E52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23" style="10" customWidth="1"/>
+    <col min="2" max="2" width="23" style="8" customWidth="1"/>
     <col min="3" max="3" width="17" style="7" customWidth="1"/>
     <col min="5" max="5" width="72.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>59</v>
       </c>
       <c r="C1" s="7" t="s">
@@ -4982,10 +4991,10 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+      <c r="A2" s="11">
         <v>84671</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="9">
         <v>0.46</v>
       </c>
       <c r="C2" s="7" t="s">
@@ -4999,10 +5008,10 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
+      <c r="A3" s="11">
         <v>146278</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="9">
         <v>0.79</v>
       </c>
       <c r="C3" s="7" t="s">
@@ -5016,10 +5025,10 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="11">
         <v>305849</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="9">
         <v>1.65</v>
       </c>
       <c r="C4" s="7" t="s">
@@ -5033,10 +5042,10 @@
       </c>
     </row>
     <row r="5" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="11">
         <v>121383</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="9">
         <v>0.66</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -5050,10 +5059,10 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="11">
         <v>926049</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="9">
         <v>5</v>
       </c>
       <c r="C6" s="7" t="s">
@@ -5067,10 +5076,10 @@
       </c>
     </row>
     <row r="7" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="11">
         <v>196681</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="9">
         <v>1.06</v>
       </c>
       <c r="C7" s="7" t="s">
@@ -5084,10 +5093,10 @@
       </c>
     </row>
     <row r="8" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
+      <c r="A8" s="11">
         <v>339096</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="9">
         <v>1.83</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -5101,10 +5110,10 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
+      <c r="A9" s="11">
         <v>108495</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="9">
         <v>0.59</v>
       </c>
       <c r="C9" s="7" t="s">
@@ -5118,10 +5127,10 @@
       </c>
     </row>
     <row r="10" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
+      <c r="A10" s="11">
         <v>575331</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="9">
         <v>3.11</v>
       </c>
       <c r="C10" s="7" t="s">
@@ -5135,10 +5144,10 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
+      <c r="A11" s="11">
         <v>209859</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="9">
         <v>1.1299999999999999</v>
       </c>
       <c r="C11" s="7" t="s">
@@ -5152,10 +5161,10 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
+      <c r="A12" s="11">
         <v>331868</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="9">
         <v>1.79</v>
       </c>
       <c r="C12" s="7" t="s">
@@ -5169,10 +5178,10 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
+      <c r="A13" s="11">
         <v>31091</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="9">
         <v>0.17</v>
       </c>
       <c r="C13" s="7" t="s">
@@ -5186,10 +5195,10 @@
       </c>
     </row>
     <row r="14" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
+      <c r="A14" s="11">
         <v>492932</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="9">
         <v>2.66</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -5203,10 +5212,10 @@
       </c>
     </row>
     <row r="15" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
+      <c r="A15" s="11">
         <v>719834</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="9">
         <v>3.89</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -5220,10 +5229,10 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
+      <c r="A16" s="11">
         <v>531302</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="9">
         <v>2.87</v>
       </c>
       <c r="C16" s="7" t="s">
@@ -5237,10 +5246,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
+      <c r="A17" s="11">
         <v>382437</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="9">
         <v>2.0699999999999998</v>
       </c>
       <c r="C17" s="7" t="s">
@@ -5254,10 +5263,10 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
+      <c r="A18" s="11">
         <v>347249</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="9">
         <v>1.88</v>
       </c>
       <c r="C18" s="7" t="s">
@@ -5271,10 +5280,10 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
+      <c r="A19" s="11">
         <v>521621</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="9">
         <v>2.82</v>
       </c>
       <c r="C19" s="7" t="s">
@@ -5288,10 +5297,10 @@
       </c>
     </row>
     <row r="20" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
+      <c r="A20" s="11">
         <v>2622731</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="9">
         <v>14.17</v>
       </c>
       <c r="C20" s="7" t="s">
@@ -5305,10 +5314,10 @@
       </c>
     </row>
     <row r="21" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
+      <c r="A21" s="11">
         <v>228886</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="9">
         <v>1.24</v>
       </c>
       <c r="C21" s="7" t="s">
@@ -5322,10 +5331,10 @@
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
+      <c r="A22" s="11">
         <v>68377</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="9">
         <v>0.37</v>
       </c>
       <c r="C22" s="7" t="s">
@@ -5339,10 +5348,10 @@
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
+      <c r="A23" s="11">
         <v>150576</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="9">
         <v>0.81</v>
       </c>
       <c r="C23" s="7" t="s">
@@ -5356,10 +5365,10 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
+      <c r="A24" s="11">
         <v>205625</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="9">
         <v>1.1100000000000001</v>
       </c>
       <c r="C24" s="7" t="s">
@@ -5373,10 +5382,10 @@
       </c>
     </row>
     <row r="25" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
+      <c r="A25" s="11">
         <v>59295</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="9">
         <v>0.32</v>
       </c>
       <c r="C25" s="7" t="s">
@@ -5390,10 +5399,10 @@
       </c>
     </row>
     <row r="26" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
+      <c r="A26" s="11">
         <v>505776</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="9">
         <v>2.73</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -5407,10 +5416,10 @@
       </c>
     </row>
     <row r="27" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+      <c r="A27" s="11">
         <v>490238</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="9">
         <v>2.65</v>
       </c>
       <c r="C27" s="7" t="s">
@@ -5424,10 +5433,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
+      <c r="A28" s="11">
         <v>299113</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="9">
         <v>1.62</v>
       </c>
       <c r="C28" s="7" t="s">
@@ -5441,10 +5450,10 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
+      <c r="A29" s="11">
         <v>46227</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="9">
         <v>0.25</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -5458,10 +5467,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
+      <c r="A30" s="11">
         <v>796012</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="9">
         <v>4.3</v>
       </c>
       <c r="C30" s="7" t="s">
@@ -5475,10 +5484,10 @@
       </c>
     </row>
     <row r="31" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
+      <c r="A31" s="11">
         <v>185183</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="9">
         <v>1</v>
       </c>
       <c r="C31" s="7" t="s">
@@ -5492,10 +5501,10 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
+      <c r="A32" s="11">
         <v>117446</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="9">
         <v>0.63</v>
       </c>
       <c r="C32" s="7" t="s">
@@ -5509,10 +5518,10 @@
       </c>
     </row>
     <row r="33" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
+      <c r="A33" s="11">
         <v>77208</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="9">
         <v>0.42</v>
       </c>
       <c r="C33" s="7" t="s">
@@ -5526,10 +5535,10 @@
       </c>
     </row>
     <row r="34" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
+      <c r="A34" s="11">
         <v>259918</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="9">
         <v>1.4</v>
       </c>
       <c r="C34" s="7" t="s">
@@ -5543,10 +5552,10 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
+      <c r="A35" s="11">
         <v>71453</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="9">
         <v>0.39</v>
       </c>
       <c r="C35" s="7" t="s">
@@ -5560,10 +5569,10 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
+      <c r="A36" s="11">
         <v>57529</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="9">
         <v>0.31</v>
       </c>
       <c r="C36" s="7" t="s">
@@ -5577,10 +5586,10 @@
       </c>
     </row>
     <row r="37" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
+      <c r="A37" s="11">
         <v>626622</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="9">
         <v>3.39</v>
       </c>
       <c r="C37" s="7" t="s">
@@ -5594,10 +5603,10 @@
       </c>
     </row>
     <row r="38" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
+      <c r="A38" s="11">
         <v>313088</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="9">
         <v>1.69</v>
       </c>
       <c r="C38" s="7" t="s">
@@ -5611,10 +5620,10 @@
       </c>
     </row>
     <row r="39" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
+      <c r="A39" s="11">
         <v>72861</v>
       </c>
-      <c r="B39" s="2">
+      <c r="B39" s="9">
         <v>0.39</v>
       </c>
       <c r="C39" s="7" t="s">
@@ -5628,10 +5637,10 @@
       </c>
     </row>
     <row r="40" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
+      <c r="A40" s="11">
         <v>38328</v>
       </c>
-      <c r="B40" s="2">
+      <c r="B40" s="9">
         <v>0.21</v>
       </c>
       <c r="C40" s="7" t="s">
@@ -5645,10 +5654,10 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
+      <c r="A41" s="11">
         <v>1500055</v>
       </c>
-      <c r="B41" s="2">
+      <c r="B41" s="9">
         <v>8.1</v>
       </c>
       <c r="C41" s="7" t="s">
@@ -5662,10 +5671,10 @@
       </c>
     </row>
     <row r="42" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
+      <c r="A42" s="11">
         <v>48354</v>
       </c>
-      <c r="B42" s="2">
+      <c r="B42" s="9">
         <v>0.26</v>
       </c>
       <c r="C42" s="7" t="s">
@@ -5679,10 +5688,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
+      <c r="A43" s="11">
         <v>157671</v>
       </c>
-      <c r="B43" s="2">
+      <c r="B43" s="9">
         <v>0.85</v>
       </c>
       <c r="C43" s="7" t="s">
@@ -5696,10 +5705,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
+      <c r="A44" s="11">
         <v>50404</v>
       </c>
-      <c r="B44" s="2">
+      <c r="B44" s="9">
         <v>0.27</v>
       </c>
       <c r="C44" s="7" t="s">
@@ -5713,10 +5722,10 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
+      <c r="A45" s="11">
         <v>322644</v>
       </c>
-      <c r="B45" s="2">
+      <c r="B45" s="9">
         <v>1.74</v>
       </c>
       <c r="C45" s="7" t="s">
@@ -5730,10 +5739,10 @@
       </c>
     </row>
     <row r="46" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
+      <c r="A46" s="11">
         <v>93594</v>
       </c>
-      <c r="B46" s="2">
+      <c r="B46" s="9">
         <v>0.51</v>
       </c>
       <c r="C46" s="7" t="s">
@@ -5747,10 +5756,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
+      <c r="A47" s="11">
         <v>53453</v>
       </c>
-      <c r="B47" s="2">
+      <c r="B47" s="9">
         <v>0.28999999999999998</v>
       </c>
       <c r="C47" s="7" t="s">
@@ -5764,10 +5773,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
+      <c r="A48" s="11">
         <v>181278</v>
       </c>
-      <c r="B48" s="2">
+      <c r="B48" s="9">
         <v>0.98</v>
       </c>
       <c r="C48" s="7" t="s">
@@ -5781,10 +5790,10 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
+      <c r="A49" s="11">
         <v>1599283</v>
       </c>
-      <c r="B49" s="2">
+      <c r="B49" s="9">
         <v>8.64</v>
       </c>
       <c r="C49" s="7" t="s">
@@ -5798,10 +5807,10 @@
       </c>
     </row>
     <row r="50" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
+      <c r="A50" s="11">
         <v>236999</v>
       </c>
-      <c r="B50" s="2">
+      <c r="B50" s="9">
         <v>1.28</v>
       </c>
       <c r="C50" s="7" t="s">
@@ -5815,10 +5824,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="3">
+      <c r="A51" s="11">
         <v>476770</v>
       </c>
-      <c r="B51" s="2">
+      <c r="B51" s="9">
         <v>2.58</v>
       </c>
       <c r="C51" s="7" t="s">
@@ -5832,10 +5841,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="3">
+      <c r="A52" s="11">
         <v>126478</v>
       </c>
-      <c r="B52" s="2">
+      <c r="B52" s="9">
         <v>0.68</v>
       </c>
       <c r="C52" s="7" t="s">
